--- a/aggregated_datasets/Exp_antisocial.xlsx
+++ b/aggregated_datasets/Exp_antisocial.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="19155" windowHeight="8475"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="93">
   <si>
     <t>Adachi, P. J. C., &amp; Willoughby, T. (2011). S1</t>
   </si>
@@ -265,13 +265,43 @@
   </si>
   <si>
     <t>Whitaker, J. L., &amp; Bushman, B. J. (2012).</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Outcome (specific)</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Lower Limit</t>
+  </si>
+  <si>
+    <t>Upper Limit</t>
+  </si>
+  <si>
+    <t>Z-Value</t>
+  </si>
+  <si>
+    <t>p-Value</t>
+  </si>
+  <si>
+    <t>Subgroup w/in study</t>
+  </si>
+  <si>
+    <t>Time point</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +339,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -387,6 +422,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -421,6 +457,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,1804 +633,1836 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>-0.30393136083262801</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>0.30393136083262801</v>
       </c>
-      <c r="G1">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>-3.4551717897203002E-2</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>-0.20958243307896901</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>0.142624545237865</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>-0.38024045068857798</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>0.70376693489578102</v>
       </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>0.24240876755787399</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <v>6.9415319111559695E-2</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0.40124858386465301</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>2.7263711657895802</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H4" s="1">
         <v>6.4034945583846302E-3</v>
       </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
         <v>0.212211422093947</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <v>5.6140154577715803E-2</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>0.35815918031763599</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>2.6514750463394798</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H5" s="1">
         <v>8.0141034694012295E-3</v>
       </c>
-      <c r="J4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>0.217036867198658</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>3.2602219209474301E-2</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0.387177051359062</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>2.3000992579187902</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="1">
         <v>2.1442597319576401E-2</v>
       </c>
-      <c r="J5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
         <v>0.29330643675801299</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>2.5185413170188999E-2</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>0.52206151946067303</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>2.1382125029147798</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>3.2499500080710002E-2</v>
       </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
         <v>8.0946571424185501E-2</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>-6.7900167136056996E-2</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.22626835552626201</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>1.06619359084723</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>0.28633613879463199</v>
       </c>
-      <c r="J7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.38708835994406698</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>0.138178761406372</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>0.59000447581014304</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>2.97209462649487</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="1">
         <v>2.9577550878963099E-3</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>15</v>
       </c>
-      <c r="K8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10">
         <v>0.16601416654273901</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-0.10040350164106</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.41021778394547698</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>1.22404651870315</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>0.220934679414452</v>
       </c>
-      <c r="J9" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
         <v>7.8695322527881001E-2</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-0.31060745928531902</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>0.44538976423716697</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>0.38632559084034301</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>0.69925555011713703</v>
       </c>
-      <c r="J10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s">
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>1.8743076362343201E-2</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>-0.14582636743338201</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>0.182303151145739</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>0.22183518103993599</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>0.82444219119971796</v>
       </c>
-      <c r="J11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>5.8151830381515501E-2</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>-8.4976183420247001E-2</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>0.198928480691165</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>0.79571078346816004</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>0.42620015765478803</v>
       </c>
-      <c r="J12" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>4.0286691850345599E-2</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>-0.112177890357992</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>0.19089806768002701</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>0.51649419469797897</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>0.605509292501201</v>
       </c>
-      <c r="J13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+      <c r="J14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D15" s="1">
         <v>3.09106996232376E-2</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>-0.20317499631115801</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>0.26165399911977599</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>0.25574992095619897</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>0.79814394532885402</v>
       </c>
-      <c r="J14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" t="s">
+      <c r="J15" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
         <v>0.361129141122427</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>0.14538382956081</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>0.54408924849760798</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>3.19821678850739</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H16" s="1">
         <v>1.38280284376147E-3</v>
       </c>
-      <c r="J15" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" t="s">
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <v>-1.89915715916435E-2</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>-0.16409270671963599</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.126913997221522</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>-0.25394480118914298</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>0.79953820263183895</v>
       </c>
-      <c r="J16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+      <c r="J17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1">
         <v>-4.1366524308801202E-2</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>-0.30409435481494701</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.22720914745263601</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>-0.297552522816658</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.76604471524816697</v>
       </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" t="s">
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
         <v>0.36117682218601099</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>-3.4369417263479998E-4</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>0.63920059483283198</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>1.9581846403320899</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H19" s="1">
         <v>5.02083507783877E-2</v>
       </c>
-      <c r="J18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
         <v>0.10371138106233301</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>-0.26871709366048901</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>0.44916347297509501</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>0.53746648187558099</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>0.59094543159372304</v>
       </c>
-      <c r="J19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>0.30197010641017102</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>9.0341256617222795E-2</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>0.48750608220295</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>2.7630011558886101</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="1">
         <v>5.7272563635972799E-3</v>
       </c>
-      <c r="J20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
         <v>8.6102052063142198E-2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>1.63156161931922E-2</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>0.15505367214336399</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>2.4168417810156799</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>1.5655820612924001E-2</v>
       </c>
-      <c r="J21" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
+      <c r="J22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>34</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
         <v>0.14721568445383201</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>2.8250423678580099E-2</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>0.26206885214905301</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>2.4213661819861199</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H23" s="1">
         <v>1.54622928046246E-2</v>
       </c>
-      <c r="J22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" t="s">
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
         <v>0.16025573286105099</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>8.2414647660944799E-3</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>0.30503031905049699</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>2.0652609163595801</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H24" s="1">
         <v>3.8898319468817701E-2</v>
       </c>
-      <c r="J23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>0.40632939115030298</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>0.17394860880187199</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>0.59584369276837401</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>3.3081999093801699</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="1">
         <v>9.3897756805238998E-4</v>
       </c>
-      <c r="J24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+      <c r="J25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>38</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>-0.210196709523022</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>-0.398978008386562</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <v>-4.3213885471859396E-3</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>-2.0004786303528301</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H26" s="1">
         <v>4.5448605196993598E-2</v>
       </c>
-      <c r="J25" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+      <c r="J26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
         <v>40</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>0.20307294859175301</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E27" s="1">
         <v>-2.1080389377204401E-2</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>0.40778765071377399</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>1.7779399929569</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H27" s="1">
         <v>7.54137109030113E-2</v>
       </c>
-      <c r="J26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
+      <c r="J27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
         <v>42</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>0.359136094885042</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E28" s="1">
         <v>8.6582945986745305E-2</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>0.58167276790598199</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>2.5484430381609302</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H28" s="1">
         <v>1.08204956036377E-2</v>
       </c>
-      <c r="J27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
+      <c r="J28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
         <v>44</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>0.222968416</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="1">
         <v>2.4617831595972899E-2</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>0.40442880218840299</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>2.1986909509002799</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H29" s="1">
         <v>2.7899904833669401E-2</v>
       </c>
-      <c r="J28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+      <c r="J29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>45</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>0.24764936941971599</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="1">
         <v>3.9815061596314399E-2</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>0.434943857945712</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>2.3264023619188898</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H30" s="1">
         <v>1.9997095746725299E-2</v>
       </c>
-      <c r="J29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
+      <c r="J30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30">
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
         <v>0.68741565757557999</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>0.51686951312537699</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>0.805478992712367</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>6.0975765199521899</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H31" s="1">
         <v>1.0768856917309199E-9</v>
       </c>
-      <c r="J30" t="s">
-        <v>3</v>
-      </c>
-      <c r="K30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
+      <c r="J31" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
         <v>49</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>7.2136080234656993E-2</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>-0.30852283709987</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>0.43287986498761299</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>0.36206460939795498</v>
       </c>
-      <c r="H31">
+      <c r="H32">
         <v>0.71730374959935805</v>
       </c>
-      <c r="J31" t="s">
-        <v>3</v>
-      </c>
-      <c r="K31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
+      <c r="J32" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32">
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
         <v>0.13357228731017301</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>-0.15263352965681801</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <v>0.39910696089111197</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>0.91381226329328402</v>
       </c>
-      <c r="H32">
+      <c r="H33">
         <v>0.36081550149049302</v>
       </c>
-      <c r="J32" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
+      <c r="J33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1">
         <v>5.2410444757999601E-2</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>-0.255390316059808</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>0.35056506345136301</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>0.32782900963872003</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>0.74304095183867203</v>
       </c>
-      <c r="J33" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
+      <c r="J34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
         <v>53</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>0.40584569331961901</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E35" s="1">
         <v>-3.8733831137505399E-2</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>0.71630199726918198</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>1.7981446114534101</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H35" s="1">
         <v>7.2154094251245096E-2</v>
       </c>
-      <c r="J34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
+      <c r="J35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>56</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>0.22443290236982399</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E36" s="1">
         <v>1.7178076505459199E-2</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>0.41319575184859197</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>2.1194401599596802</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H36" s="1">
         <v>3.4053285871292499E-2</v>
       </c>
-      <c r="J35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
+      <c r="J36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36">
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
         <v>0.53614231673999502</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>0.407616014249781</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>0.64383872325927005</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>7.0701424115576197</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H37" s="1">
         <v>1.54765089632747E-12</v>
       </c>
-      <c r="J36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
+      <c r="J37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37">
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
         <v>0.36338644146455501</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>0.15175944273551101</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>0.54315723323815701</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>3.2756110553241</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H38" s="1">
         <v>1.05433652441134E-3</v>
       </c>
-      <c r="J37" t="s">
-        <v>3</v>
-      </c>
-      <c r="K37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
+      <c r="J38" t="s">
+        <v>3</v>
+      </c>
+      <c r="K38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>59</v>
       </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
         <v>42</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>0.15768945703450199</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E39" s="1">
         <v>-1.1811361101850401E-2</v>
       </c>
-      <c r="F38">
+      <c r="F39">
         <v>0.31838113495118697</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>1.82444238096207</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H39" s="1">
         <v>6.8085219745289499E-2</v>
       </c>
-      <c r="J38" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
+      <c r="J39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>60</v>
       </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
         <v>61</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>0.19</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E40" s="1">
         <v>5.43808826661209E-2</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>0.31873619004290699</v>
       </c>
-      <c r="G39">
+      <c r="G40">
         <v>2.73362479246958</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H40" s="1">
         <v>6.26413809079751E-3</v>
       </c>
-      <c r="J39" t="s">
-        <v>3</v>
-      </c>
-      <c r="K39" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
+      <c r="J40" t="s">
+        <v>3</v>
+      </c>
+      <c r="K40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D41" s="1">
         <v>9.78372160424551E-2</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>-0.33674626378591899</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>0.49805822964208601</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>0.42885862597526497</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>0.66802611129932898</v>
       </c>
-      <c r="J40" t="s">
-        <v>3</v>
-      </c>
-      <c r="K40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
+      <c r="J41" t="s">
+        <v>3</v>
+      </c>
+      <c r="K41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>64</v>
       </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="1">
         <v>2.56386895313063E-2</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>-0.20814697586272901</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>0.25665315129086902</v>
       </c>
-      <c r="G41">
+      <c r="G42">
         <v>0.21218491367027001</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>0.83196277592620405</v>
       </c>
-      <c r="J41" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
+      <c r="J42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>65</v>
       </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
         <v>0.35908517612438501</v>
       </c>
-      <c r="E42">
+      <c r="E43">
         <v>0.24776608812574399</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>0.46104623372591802</v>
       </c>
-      <c r="G42">
+      <c r="G43">
         <v>5.9983741093016301</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H43" s="1">
         <v>1.9930295191983301E-9</v>
       </c>
-      <c r="J42" t="s">
-        <v>5</v>
-      </c>
-      <c r="K42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
+      <c r="J43" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>66</v>
       </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43">
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
         <v>0.26386883216948398</v>
       </c>
-      <c r="E43">
+      <c r="E44">
         <v>0.12836236034915</v>
       </c>
-      <c r="F43">
+      <c r="F44">
         <v>0.38970321587039197</v>
       </c>
-      <c r="G43">
+      <c r="G44">
         <v>3.7517701616141998</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H44" s="1">
         <v>1.7559040239612E-4</v>
       </c>
-      <c r="J43" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
+      <c r="J44" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>67</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>69</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>0.237822360039321</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E45" s="1">
         <v>3.2892361290694297E-2</v>
       </c>
-      <c r="F44">
+      <c r="F45">
         <v>0.42356219242752102</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>2.2677086823002401</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H45" s="1">
         <v>2.33469683227574E-2</v>
       </c>
-      <c r="J44" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
+      <c r="J45" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>70</v>
       </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D45">
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
         <v>0.30819904708260598</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <v>5.4084724193656002E-2</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>0.52482136648216604</v>
       </c>
-      <c r="G45">
+      <c r="G46">
         <v>2.3612535750407901</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H46" s="1">
         <v>1.8213272046506201E-2</v>
       </c>
-      <c r="J45" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" t="s">
+      <c r="J46" t="s">
+        <v>3</v>
+      </c>
+      <c r="K46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>71</v>
       </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46">
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
         <v>0.14381530526372699</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E47" s="1">
         <v>-1.1106608381084701E-2</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>0.29199484499091599</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>1.8203503410285</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H47" s="1">
         <v>6.8705669672856504E-2</v>
       </c>
-      <c r="J46" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" t="s">
+      <c r="J47" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>72</v>
       </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
         <v>0.290031666620228</v>
       </c>
-      <c r="E47">
+      <c r="E48">
         <v>0.115317961577519</v>
       </c>
-      <c r="F47">
+      <c r="F48">
         <v>0.44733886450523302</v>
       </c>
-      <c r="G47">
+      <c r="G48">
         <v>3.2021372510767199</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H48" s="1">
         <v>1.3641198625331499E-3</v>
       </c>
-      <c r="J47" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
+      <c r="J48" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>73</v>
       </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48">
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49">
         <v>0.242728751312001</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>0.107713544730057</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>0.36895275999041099</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>3.4788040942815099</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H49" s="1">
         <v>5.0365663643781001E-4</v>
       </c>
-      <c r="J48" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
+      <c r="J49" t="s">
+        <v>3</v>
+      </c>
+      <c r="K49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>74</v>
       </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49">
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50">
         <v>0.20419899152319501</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E50" s="1">
         <v>8.0930344155910106E-2</v>
       </c>
-      <c r="F49">
+      <c r="F50">
         <v>0.32131515733263899</v>
       </c>
-      <c r="G49">
+      <c r="G50">
         <v>3.22159031074465</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H50" s="1">
         <v>1.2748127882233899E-3</v>
       </c>
-      <c r="J49" t="s">
-        <v>3</v>
-      </c>
-      <c r="K49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
+      <c r="J50" t="s">
+        <v>3</v>
+      </c>
+      <c r="K50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>75</v>
       </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50">
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
         <v>0.131305079123476</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E51" s="1">
         <v>5.19788031999412E-4</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>0.25767401758648301</v>
       </c>
-      <c r="G50">
+      <c r="G51">
         <v>1.96770843840209</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H51" s="1">
         <v>4.9101594353132501E-2</v>
       </c>
-      <c r="J50" t="s">
-        <v>3</v>
-      </c>
-      <c r="K50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
+      <c r="J51" t="s">
+        <v>3</v>
+      </c>
+      <c r="K51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>76</v>
       </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51">
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
         <v>0.17236377122625399</v>
       </c>
-      <c r="E51">
+      <c r="E52">
         <v>4.1353566102371002E-2</v>
       </c>
-      <c r="F51">
+      <c r="F52">
         <v>0.29754722921118298</v>
       </c>
-      <c r="G51">
+      <c r="G52">
         <v>2.5709865985209599</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H52" s="1">
         <v>1.0140925112713599E-2</v>
       </c>
-      <c r="J51" t="s">
-        <v>3</v>
-      </c>
-      <c r="K51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
+      <c r="J52" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>77</v>
       </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
         <v>78</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D53" s="1">
         <v>9.9370925693902504E-2</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E53" s="1">
         <v>-1.5305878715239699E-2</v>
       </c>
-      <c r="F52">
+      <c r="F53">
         <v>0.21146745001805101</v>
       </c>
-      <c r="G52">
+      <c r="G53">
         <v>1.69909894823255</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H53" s="1">
         <v>8.9300541543670495E-2</v>
       </c>
-      <c r="J52" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
+      <c r="J53" t="s">
+        <v>3</v>
+      </c>
+      <c r="K53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>79</v>
       </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53">
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
         <v>0.13009741622761101</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E54" s="1">
         <v>-3.8784043382597201E-2</v>
       </c>
-      <c r="F53">
+      <c r="F54">
         <v>0.291753089925742</v>
       </c>
-      <c r="G53">
+      <c r="G54">
         <v>1.51164767564177</v>
       </c>
-      <c r="H53">
+      <c r="H54">
         <v>0.13062351630796401</v>
       </c>
-      <c r="J53" t="s">
-        <v>3</v>
-      </c>
-      <c r="K53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
+      <c r="J54" t="s">
+        <v>3</v>
+      </c>
+      <c r="K54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>80</v>
       </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54">
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
         <v>0.23709859265463901</v>
       </c>
-      <c r="E54">
+      <c r="E55">
         <v>8.8879491973430994E-2</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>0.37504463703322199</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>3.1046623123342698</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H55" s="1">
         <v>1.90496375252258E-3</v>
       </c>
-      <c r="J54" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" t="s">
+      <c r="J55" t="s">
+        <v>3</v>
+      </c>
+      <c r="K55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>81</v>
       </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
         <v>14</v>
       </c>
-      <c r="D55">
+      <c r="D56">
         <v>0.18299951225952099</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E56" s="1">
         <v>4.50906074078542E-2</v>
       </c>
-      <c r="F55">
+      <c r="F56">
         <v>0.31406379147337798</v>
       </c>
-      <c r="G55">
+      <c r="G56">
         <v>2.5918154207266499</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H56" s="1">
         <v>9.5470978784697492E-3</v>
       </c>
-      <c r="J55" t="s">
-        <v>5</v>
-      </c>
-      <c r="K55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" t="s">
+      <c r="J56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>82</v>
       </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56">
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
         <v>0.123619410768093</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E57" s="1">
         <v>-4.0671676704106798E-2</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>0.28140204356683002</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>1.47642676648604</v>
       </c>
-      <c r="H56">
+      <c r="H57">
         <v>0.13982936155859499</v>
       </c>
-      <c r="J56" t="s">
-        <v>3</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="J57" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2403,24 +2472,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
